--- a/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
+++ b/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005699</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
+++ b/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2854,4 +2855,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
+++ b/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.04</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.64</v>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2926,13 +2991,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>18.6</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
+++ b/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.66</v>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.04</v>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.64</v>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3303,13 +3390,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.6</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
+++ b/数据整理/stocks/其他/KYG875721634-腾讯控股.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>8.43</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.66</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.04</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>7.64</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.6</v>
       </c>
     </row>
@@ -566,6 +583,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银全球股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银全球股票（QDII）港币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1911,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2575,7 +3104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
